--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20181231-dayton/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CB3495-80CA-154E-B7AB-A099B6A59AB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270AD705-4775-6F41-B98C-0C24A80A5F01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="21700" windowHeight="14480" tabRatio="500" firstSheet="12" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="3540" windowWidth="33020" windowHeight="19040" tabRatio="500" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="279">
   <si>
     <t>tab</t>
   </si>
@@ -846,6 +846,42 @@
   <si>
     <t>Percentage of Minnesota households with high-speed Internet access</t>
   </si>
+  <si>
+    <t>https://www.house.leg.state.mn.us/hrd/issinfo/msamain.aspx</t>
+  </si>
+  <si>
+    <t>http://www.health.state.mn.us/divs/hpsc/hep/publications/mnha2017primfind.pdf http://www.health.state.mn.us/divs/hpsc/hep/publications/coverage/healthinscovmnhas2015brief.pdf</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>education_spending</t>
+  </si>
+  <si>
+    <t>Local school funding percentage</t>
+  </si>
+  <si>
+    <t>State school funding percentage</t>
+  </si>
+  <si>
+    <t>Federal school funding percentage</t>
+  </si>
+  <si>
+    <t>Percentage of education spending in Minnesota from various sources, 1999-2018</t>
+  </si>
+  <si>
+    <t>https://www.oir.umn.edu/tuition-and-finance</t>
+  </si>
+  <si>
+    <t>http://www.ohe.state.mn.us/sPages/grad_debt.cfm</t>
+  </si>
 </sst>
 </file>
 
@@ -854,9 +890,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -942,6 +978,28 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1375,7 +1433,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1407,9 +1465,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="409">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2160,7 +2221,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2169,13 +2230,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3134,16 +3195,16 @@
   <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3489,7 +3550,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3500,16 +3561,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="28" t="s">
         <v>245</v>
       </c>
       <c r="E1" s="28" t="s">
@@ -4048,11 +4109,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4217,15 +4278,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD10FD13-082A-164E-B0B6-5AB8CE327E1F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>7</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4427,9 +4491,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -4525,6 +4589,9 @@
       <c r="C11" t="s">
         <v>44</v>
       </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4547,93 +4614,113 @@
       <c r="C13" t="s">
         <v>42</v>
       </c>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>240</v>
-      </c>
-      <c r="D17" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>262</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>263</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>265</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5861,10 +5948,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A2:B82"/>
+  <dimension ref="A2:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6135,12 +6222,12 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>26</v>
+      <c r="A48" s="28" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
@@ -6148,219 +6235,256 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>76</v>
+      <c r="A50" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>77</v>
+      <c r="A51" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>78</v>
+      <c r="A52" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" t="s">
-        <v>111</v>
+      <c r="A54" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>88</v>
+      <c r="A57" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>116</v>
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>238</v>
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" t="s">
-        <v>239</v>
+        <v>89</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>7</v>
+      <c r="B67" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>241</v>
-      </c>
-      <c r="B69" t="s">
-        <v>258</v>
+      <c r="A69" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>248</v>
-      </c>
-      <c r="B72" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>246</v>
-      </c>
-      <c r="B73" t="s">
-        <v>256</v>
+      <c r="A73" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>247</v>
-      </c>
-      <c r="B74" t="s">
-        <v>255</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>241</v>
+      </c>
+      <c r="B75" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="29" t="s">
-        <v>250</v>
+      <c r="A76" t="s">
+        <v>244</v>
+      </c>
+      <c r="B76" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>253</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B84" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="29" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>7</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B87" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>253</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B88" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6379,23 +6503,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="E502" sqref="E502"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -63933,7 +64057,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63942,13 +64066,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="28" t="s">
         <v>82</v>
       </c>
     </row>
@@ -64141,16 +64265,16 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="28" t="s">
         <v>17</v>
       </c>
     </row>
@@ -64177,15 +64301,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D23" sqref="D23:U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -64193,15 +64317,23 @@
         <v>68</v>
       </c>
       <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -64209,75 +64341,545 @@
         <v>0.08</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="D2">
+        <v>1999</v>
+      </c>
+      <c r="E2" s="31">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="F2" s="31">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G2" s="31">
+        <v>0.68100000000000005</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" s="8">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2001</v>
+      </c>
+      <c r="E3" s="31">
+        <v>0.251</v>
+      </c>
+      <c r="F3" s="31">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G3" s="31">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2004</v>
       </c>
       <c r="B4" s="8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>2002</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2007</v>
       </c>
       <c r="B5" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>2003</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2010</v>
       </c>
       <c r="B6" s="8">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>2004</v>
+      </c>
+      <c r="E6" s="31">
+        <v>0.252</v>
+      </c>
+      <c r="F6" s="31">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7" s="8">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>2005</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
       <c r="B8" s="8">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>2006</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9" s="8">
         <v>6.3E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>2007</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="F9" s="31">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>2008</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
+      <c r="D11">
+        <v>2009</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2010</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F12" s="31">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>2011</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>2012</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2013</v>
+      </c>
+      <c r="E15" s="31">
+        <v>0.311</v>
+      </c>
+      <c r="F15" s="31">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>2014</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>2015</v>
+      </c>
+      <c r="E17" s="31">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F17" s="31">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G17" s="31">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2017</v>
+      </c>
+      <c r="E19" s="31">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="F19" s="31">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G19" s="31">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>1999</v>
+      </c>
+      <c r="E22">
+        <v>2001</v>
+      </c>
+      <c r="F22">
+        <v>2002</v>
+      </c>
+      <c r="G22">
+        <v>2003</v>
+      </c>
+      <c r="H22">
+        <v>2004</v>
+      </c>
+      <c r="I22">
+        <v>2005</v>
+      </c>
+      <c r="J22">
+        <v>2006</v>
+      </c>
+      <c r="K22">
+        <v>2007</v>
+      </c>
+      <c r="L22">
+        <v>2008</v>
+      </c>
+      <c r="M22">
+        <v>2009</v>
+      </c>
+      <c r="N22">
+        <v>2010</v>
+      </c>
+      <c r="O22">
+        <v>2011</v>
+      </c>
+      <c r="P22">
+        <v>2012</v>
+      </c>
+      <c r="Q22">
+        <v>2013</v>
+      </c>
+      <c r="R22">
+        <v>2014</v>
+      </c>
+      <c r="S22">
+        <v>2015</v>
+      </c>
+      <c r="T22">
+        <v>2016</v>
+      </c>
+      <c r="U22">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.251</v>
+      </c>
+      <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23">
+        <v>0.252</v>
+      </c>
+      <c r="I23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="L23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="O23" t="s">
+        <v>120</v>
+      </c>
+      <c r="P23" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23">
+        <v>0.311</v>
+      </c>
+      <c r="R23" t="s">
+        <v>120</v>
+      </c>
+      <c r="S23">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="T23" t="s">
+        <v>120</v>
+      </c>
+      <c r="U23">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q24">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R24" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24">
+        <v>6.2E-2</v>
+      </c>
+      <c r="T24" t="s">
+        <v>120</v>
+      </c>
+      <c r="U24">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E25">
+        <v>0.626</v>
+      </c>
+      <c r="F25" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25">
+        <v>0.625</v>
+      </c>
+      <c r="I25" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
+      <c r="M25" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="O25" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q25">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="R25" t="s">
+        <v>120</v>
+      </c>
+      <c r="S25">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="T25" t="s">
+        <v>120</v>
+      </c>
+      <c r="U25">
+        <v>0.52900000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -64294,74 +64896,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD7651F-7CD6-FA43-B52B-B8C86A5703D6}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="28">
         <v>1999</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="28">
         <v>2000</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="28">
         <v>2001</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="28">
         <v>2002</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="28">
         <v>2003</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="28">
         <v>2004</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="28">
         <v>2005</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="28">
         <v>2006</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="28">
         <v>2007</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="28">
         <v>2008</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="28">
         <v>2009</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="28">
         <v>2010</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="28">
         <v>2011</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="28">
         <v>2012</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="28">
         <v>2013</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="28">
         <v>2014</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="28">
         <v>2015</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="28">
         <v>2016</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="28">
         <v>2017</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="28">
         <v>2018</v>
       </c>
     </row>
@@ -64570,7 +65172,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="I5" sqref="A5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64677,28 +65279,29 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="28" t="s">
         <v>78</v>
       </c>
       <c r="L5" s="14" t="s">

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20181231-dayton/build/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20181231-dayton/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270AD705-4775-6F41-B98C-0C24A80A5F01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA647FEF-DDAB-FD4A-8D68-CD634DFF048D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="3540" windowWidth="33020" windowHeight="19040" tabRatio="500" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="660" windowWidth="25600" windowHeight="13380" tabRatio="500" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="294">
   <si>
     <t>tab</t>
   </si>
@@ -882,6 +882,51 @@
   <si>
     <t>http://www.ohe.state.mn.us/sPages/grad_debt.cfm</t>
   </si>
+  <si>
+    <t>crime_rate</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>minneapolis</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>violent</t>
+  </si>
+  <si>
+    <t>minnesota</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>Crime rates for Minnesota and Minneapolis over time</t>
+  </si>
+  <si>
+    <t>Minnesota BCA, Minneapolis Police Department</t>
+  </si>
+  <si>
+    <t>http://www.startribune.com/crime-across-minnesota-dropped-slightly-in-2016-fbi-data-show/431586083/</t>
+  </si>
+  <si>
+    <t>Crime rate per 100,000 residents</t>
+  </si>
+  <si>
+    <t>State region</t>
+  </si>
+  <si>
+    <t>Type of crime rate</t>
+  </si>
+  <si>
+    <t>shootings</t>
+  </si>
 </sst>
 </file>
 
@@ -892,7 +937,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1003,6 +1048,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1433,7 +1498,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1471,6 +1536,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="409">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4474,27 +4542,1299 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1C1140-438A-C74E-B459-AB61EB447085}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="Z84" sqref="Z84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2">
+        <v>1077.504095706176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>1104.650055244409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4">
+        <v>1084.8037777837035</v>
+      </c>
+      <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2014</v>
+      </c>
+      <c r="B5">
+        <v>1008.818959669125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2013</v>
+      </c>
+      <c r="B6">
+        <v>1021.1055075847138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2012</v>
+      </c>
+      <c r="B7">
+        <v>1036.3657305606166</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8">
+        <v>945.67036117492069</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>1063.0511947890366</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10">
+        <v>1116.653865748104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>1253.1688074005913</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2007</v>
+      </c>
+      <c r="B12">
+        <v>1458.9454151847842</v>
+      </c>
+      <c r="C12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>1671.5209938912803</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2005</v>
+      </c>
+      <c r="B14">
+        <v>1437.1529309201956</v>
+      </c>
+      <c r="C14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2004</v>
+      </c>
+      <c r="B15">
+        <v>1261.7677824267782</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2003</v>
+      </c>
+      <c r="B16">
+        <v>1201.689794530402</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+      <c r="B17">
+        <v>1097.9879801411028</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2001</v>
+      </c>
+      <c r="B18">
+        <v>1082.2442906972487</v>
+      </c>
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="34">
+        <v>1173.7555473082814</v>
+      </c>
+      <c r="C19" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1966</v>
+      </c>
+      <c r="B20">
+        <v>2301.5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1967</v>
+      </c>
+      <c r="B21">
+        <v>2654</v>
+      </c>
+      <c r="C21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1968</v>
+      </c>
+      <c r="B22">
+        <v>3001</v>
+      </c>
+      <c r="C22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1969</v>
+      </c>
+      <c r="B23">
+        <v>3178.4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1970</v>
+      </c>
+      <c r="B24">
+        <v>3319.6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1971</v>
+      </c>
+      <c r="B25">
+        <v>3596.4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1972</v>
+      </c>
+      <c r="B26">
+        <v>3440</v>
+      </c>
+      <c r="C26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1973</v>
+      </c>
+      <c r="B27">
+        <v>3576.4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>284</v>
+      </c>
+      <c r="D27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1974</v>
+      </c>
+      <c r="B28">
+        <v>3921.7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>284</v>
+      </c>
+      <c r="D28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1975</v>
+      </c>
+      <c r="B29">
+        <v>4328</v>
+      </c>
+      <c r="C29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1976</v>
+      </c>
+      <c r="B30">
+        <v>4358.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1977</v>
+      </c>
+      <c r="B31">
+        <v>4213.2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1978</v>
+      </c>
+      <c r="B32">
+        <v>4157.3999999999996</v>
+      </c>
+      <c r="C32" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1979</v>
+      </c>
+      <c r="B33">
+        <v>4444.8999999999996</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1980</v>
+      </c>
+      <c r="B34">
+        <v>4803.2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1981</v>
+      </c>
+      <c r="B35">
+        <v>4781.1000000000004</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1982</v>
+      </c>
+      <c r="B36">
+        <v>4535.2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1983</v>
+      </c>
+      <c r="B37">
+        <v>4073.6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1984</v>
+      </c>
+      <c r="B38">
+        <v>3883.6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1985</v>
+      </c>
+      <c r="B39">
+        <v>4202.8999999999996</v>
+      </c>
+      <c r="C39" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1986</v>
+      </c>
+      <c r="B40">
+        <v>4429.2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1987</v>
+      </c>
+      <c r="B41">
+        <v>4701</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1988</v>
+      </c>
+      <c r="B42">
+        <v>4404</v>
+      </c>
+      <c r="C42" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1989</v>
+      </c>
+      <c r="B43">
+        <v>4458.6000000000004</v>
+      </c>
+      <c r="C43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1990</v>
+      </c>
+      <c r="B44">
+        <v>4579.3999999999996</v>
+      </c>
+      <c r="C44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1991</v>
+      </c>
+      <c r="B45">
+        <v>4642.3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1992</v>
+      </c>
+      <c r="B46">
+        <v>4671</v>
+      </c>
+      <c r="C46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1993</v>
+      </c>
+      <c r="B47">
+        <v>4457.3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1994</v>
+      </c>
+      <c r="B48">
+        <v>4365.3999999999996</v>
+      </c>
+      <c r="C48" t="s">
+        <v>284</v>
+      </c>
+      <c r="D48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1995</v>
+      </c>
+      <c r="B49">
+        <v>4526.2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1996</v>
+      </c>
+      <c r="B50">
+        <v>4560.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1997</v>
+      </c>
+      <c r="B51">
+        <v>4464.7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1998</v>
+      </c>
+      <c r="B52">
+        <v>4117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1999</v>
+      </c>
+      <c r="B53">
+        <v>3627.0050000000001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2000</v>
+      </c>
+      <c r="B54">
+        <v>3632.7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2001</v>
+      </c>
+      <c r="B55">
+        <v>3584.058</v>
+      </c>
+      <c r="C55" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2002</v>
+      </c>
+      <c r="B56">
+        <v>3570.6460000000002</v>
+      </c>
+      <c r="C56" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2003</v>
+      </c>
+      <c r="B57">
+        <v>3439.7539999999999</v>
+      </c>
+      <c r="C57" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2004</v>
+      </c>
+      <c r="B58">
+        <v>3351.6990000000001</v>
+      </c>
+      <c r="C58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2005</v>
+      </c>
+      <c r="B59">
+        <v>3410.34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60">
+        <v>3366.4479999999999</v>
+      </c>
+      <c r="C60" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>2007</v>
+      </c>
+      <c r="B61">
+        <v>3256.5839999999998</v>
+      </c>
+      <c r="C61" t="s">
+        <v>284</v>
+      </c>
+      <c r="D61" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>2008</v>
+      </c>
+      <c r="B62">
+        <v>3104.8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>284</v>
+      </c>
+      <c r="D62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2009</v>
+      </c>
+      <c r="B63">
+        <v>2894</v>
+      </c>
+      <c r="C63" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>2010</v>
+      </c>
+      <c r="B64">
+        <v>2797</v>
+      </c>
+      <c r="C64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2011</v>
+      </c>
+      <c r="B65">
+        <v>2757.4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2012</v>
+      </c>
+      <c r="B66">
+        <v>2775.1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>284</v>
+      </c>
+      <c r="D66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>2013</v>
+      </c>
+      <c r="B67">
+        <v>2668.9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>284</v>
+      </c>
+      <c r="D67" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2014</v>
+      </c>
+      <c r="B68">
+        <v>2531.4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>284</v>
+      </c>
+      <c r="D68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2015</v>
+      </c>
+      <c r="B69">
+        <v>2466.1999999999998</v>
+      </c>
+      <c r="C69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2016</v>
+      </c>
+      <c r="B70">
+        <v>2372.1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>284</v>
+      </c>
+      <c r="D70" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2017</v>
+      </c>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2018</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2000</v>
+      </c>
+      <c r="B73" s="35">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2001</v>
+      </c>
+      <c r="B74" s="35">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2002</v>
+      </c>
+      <c r="B75" s="35">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2003</v>
+      </c>
+      <c r="B76" s="35">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>284</v>
+      </c>
+      <c r="D76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2004</v>
+      </c>
+      <c r="B77" s="35">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2005</v>
+      </c>
+      <c r="B78" s="35">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>284</v>
+      </c>
+      <c r="D78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2006</v>
+      </c>
+      <c r="B79" s="35">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>284</v>
+      </c>
+      <c r="D79" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2007</v>
+      </c>
+      <c r="B80" s="35">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>2008</v>
+      </c>
+      <c r="B81" s="35">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2009</v>
+      </c>
+      <c r="B82" s="35">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>2010</v>
+      </c>
+      <c r="B83" s="35">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>2011</v>
+      </c>
+      <c r="B84" s="35">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>284</v>
+      </c>
+      <c r="D84" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>2012</v>
+      </c>
+      <c r="B85" s="35">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>284</v>
+      </c>
+      <c r="D85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>2013</v>
+      </c>
+      <c r="B86" s="35">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>284</v>
+      </c>
+      <c r="D86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2014</v>
+      </c>
+      <c r="B87" s="35">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>284</v>
+      </c>
+      <c r="D87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2015</v>
+      </c>
+      <c r="B88" s="35">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>2016</v>
+      </c>
+      <c r="B89" s="35">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>284</v>
+      </c>
+      <c r="D89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>2017</v>
+      </c>
+      <c r="B90" s="35">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>284</v>
+      </c>
+      <c r="D90" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2018</v>
+      </c>
+      <c r="B91" s="35">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:D21"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4722,6 +6062,20 @@
       </c>
       <c r="D21" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5948,10 +7302,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A2:B88"/>
+  <dimension ref="A2:B94"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:B53"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6486,6 +7840,43 @@
       </c>
       <c r="B88" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20181231-dayton/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA647FEF-DDAB-FD4A-8D68-CD634DFF048D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC8E8C1-1395-6F4F-A13A-6C0551B0844A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="660" windowWidth="25600" windowHeight="13380" tabRatio="500" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1760" windowWidth="31780" windowHeight="16260" tabRatio="500" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income" sheetId="3" r:id="rId1"/>
@@ -22,17 +22,19 @@
     <sheet name="healthcare" sheetId="7" r:id="rId7"/>
     <sheet name="education_spending" sheetId="22" r:id="rId8"/>
     <sheet name="test_scores" sheetId="10" r:id="rId9"/>
-    <sheet name="graduation_rates" sheetId="16" r:id="rId10"/>
-    <sheet name="college_tuition" sheetId="8" r:id="rId11"/>
-    <sheet name="college_debt" sheetId="9" r:id="rId12"/>
-    <sheet name="congestion" sheetId="12" r:id="rId13"/>
-    <sheet name="pavement_quality" sheetId="13" r:id="rId14"/>
-    <sheet name="bridges" sheetId="17" r:id="rId15"/>
-    <sheet name="broadband" sheetId="19" r:id="rId16"/>
-    <sheet name="environment" sheetId="21" r:id="rId17"/>
-    <sheet name="crime" sheetId="20" r:id="rId18"/>
-    <sheet name="source" sheetId="1" r:id="rId19"/>
-    <sheet name="layout" sheetId="2" r:id="rId20"/>
+    <sheet name="open_enrollment" sheetId="24" r:id="rId10"/>
+    <sheet name="graduation_rates" sheetId="16" r:id="rId11"/>
+    <sheet name="college_tuition" sheetId="8" r:id="rId12"/>
+    <sheet name="college_debt" sheetId="9" r:id="rId13"/>
+    <sheet name="congestion" sheetId="12" r:id="rId14"/>
+    <sheet name="pavement_quality" sheetId="13" r:id="rId15"/>
+    <sheet name="bridges" sheetId="17" r:id="rId16"/>
+    <sheet name="broadband" sheetId="19" r:id="rId17"/>
+    <sheet name="environment" sheetId="21" r:id="rId18"/>
+    <sheet name="crime" sheetId="20" r:id="rId19"/>
+    <sheet name="prison" sheetId="23" r:id="rId20"/>
+    <sheet name="source" sheetId="1" r:id="rId21"/>
+    <sheet name="layout" sheetId="2" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="313">
   <si>
     <t>tab</t>
   </si>
@@ -927,6 +929,63 @@
   <si>
     <t>shootings</t>
   </si>
+  <si>
+    <t>prison</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Corrections</t>
+  </si>
+  <si>
+    <t>http://www.startribune.com/decades-of-new-laws-caused-minnesota-s-prison-population-spike/367934361/ https://www.minnpost.com/politics-policy/2015/06/minnesota-crime-50-year-low-so-why-are-we-imprisoning-more-people-ever/</t>
+  </si>
+  <si>
+    <t>Minnesota's incarceration rate over time, 1981-2017</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Minnesota's incarceration rate per 100,000 residents</t>
+  </si>
+  <si>
+    <t>open_enrollment</t>
+  </si>
+  <si>
+    <t>Percentage of Minnesota students enrolling in outside districts, 2000-2017</t>
+  </si>
+  <si>
+    <t>http://www.startribune.com/enrollment-trends-in-your-school/444238433/?preview=1</t>
+  </si>
+  <si>
+    <t>Percentage of Minnesota students using open enrollment</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>open_enroll</t>
+  </si>
+  <si>
+    <t>Number of school-aged residents</t>
+  </si>
+  <si>
+    <t>Number of students in districts using open enrollment</t>
+  </si>
+  <si>
+    <t>graduation_rates</t>
+  </si>
+  <si>
+    <t>Minnesota high school graduation rates 1999-2017</t>
+  </si>
+  <si>
+    <t>Minnesota high school graduation rate</t>
+  </si>
+  <si>
+    <t>Minnesota Department of Education, U.S. Department of Education</t>
+  </si>
+  <si>
+    <t>https://www.edweek.org/ew/dc/2009/gradrate_trend.html https://education.mn.gov/mdeprod/groups/communications/documents/hiddencontent/mdaw/mdu5/~edisp/059468.pdf http://www.governing.com/gov-data/high-school-graduation-rates-by-state.html http://rc.education.state.mn.us/#graduation/orgId--999999000000__groupType--state__graduationYearRate--4__p--1</t>
+  </si>
 </sst>
 </file>
 
@@ -1498,7 +1557,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1539,6 +1598,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="409">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2771,23 +2834,520 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC35651D-187B-DA47-8636-BAAAA7A964B1}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512FE981-D181-864E-A03A-21FDBF036BD5}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>44490</v>
+      </c>
+      <c r="C3">
+        <v>1667925</v>
+      </c>
+      <c r="D3">
+        <f>B3/C3</f>
+        <v>2.667386123476775E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>47692</v>
+      </c>
+      <c r="C4">
+        <v>1672020</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D19" si="0">B4/C4</f>
+        <v>2.8523582253800792E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>51608</v>
+      </c>
+      <c r="C5">
+        <v>1668748</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>3.0926179387181289E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>55765</v>
+      </c>
+      <c r="C6">
+        <v>1656222</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.3670003175902748E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>61676</v>
+      </c>
+      <c r="C7">
+        <v>1654366</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>3.7280746823858804E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>67239</v>
+      </c>
+      <c r="C8">
+        <v>1645430</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>4.086409023781018E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>70363</v>
+      </c>
+      <c r="C9">
+        <v>1644044</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>4.27987328806285E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>76550</v>
+      </c>
+      <c r="C10">
+        <v>1650889</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>4.6368956362299346E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>82675</v>
+      </c>
+      <c r="C11">
+        <v>1645214</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>5.0251821343606361E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>88040</v>
+      </c>
+      <c r="C12">
+        <v>1641942</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5.3619433573171282E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>103493</v>
+      </c>
+      <c r="C13">
+        <v>1644908</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>6.291719658485459E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>115662</v>
+      </c>
+      <c r="C14">
+        <v>1647330</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>7.021179727194915E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>123616</v>
+      </c>
+      <c r="C15">
+        <v>1650992</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>7.4873772858984181E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>133071</v>
+      </c>
+      <c r="C16">
+        <v>1666088</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>7.9870330978915882E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>139038</v>
+      </c>
+      <c r="C17">
+        <v>1679500</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>8.2785352783566538E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>143843</v>
+      </c>
+      <c r="C18">
+        <v>1693788</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>8.4923851154926122E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>150292</v>
+      </c>
+      <c r="C19">
+        <v>1709734</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>8.7903732393460041E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>155211</v>
+      </c>
+      <c r="C20">
+        <v>1731914</v>
+      </c>
+      <c r="D20">
+        <f>B20/C20</f>
+        <v>8.9618191203489322E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC35651D-187B-DA47-8636-BAAAA7A964B1}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="36">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="36">
+        <v>0.73519999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="36">
+        <v>0.74780000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="36">
+        <v>0.75170000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="36">
+        <v>0.74829999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="36">
+        <v>0.7429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="36">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="36">
+        <v>0.75490000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="36">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="36">
+        <v>0.77869999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="36">
+        <v>0.7984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="36">
+        <v>0.81169999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="36">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="36">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="36">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -3020,7 +3580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -3258,7 +3818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AX38"/>
   <sheetViews>
@@ -3613,7 +4173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S43"/>
   <sheetViews>
@@ -4167,7 +4727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446BDF35-DE32-2D43-B2F1-029DF7DCB995}">
   <dimension ref="A1:B20"/>
   <sheetViews>
@@ -4342,7 +4902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD10FD13-082A-164E-B0B6-5AB8CE327E1F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -4525,7 +5085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDA20C9-2D4F-BB46-9B60-833B654DFDE3}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -4540,12 +5100,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1C1140-438A-C74E-B459-AB61EB447085}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="Z84" sqref="Z84"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5826,266 +6386,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="73.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>250</v>
-      </c>
-      <c r="B20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" t="s">
-        <v>263</v>
-      </c>
-      <c r="C21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7301,11 +7601,640 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFA179F-A297-4245-ACC8-7805735A997C}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1981</v>
+      </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1982</v>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1983</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1984</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1985</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1986</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1987</v>
+      </c>
+      <c r="B8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1988</v>
+      </c>
+      <c r="B9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1989</v>
+      </c>
+      <c r="B10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1990</v>
+      </c>
+      <c r="B11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1991</v>
+      </c>
+      <c r="B12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1992</v>
+      </c>
+      <c r="B13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1993</v>
+      </c>
+      <c r="B14">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1994</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1995</v>
+      </c>
+      <c r="B16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1996</v>
+      </c>
+      <c r="B17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1997</v>
+      </c>
+      <c r="B18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1998</v>
+      </c>
+      <c r="B19">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1999</v>
+      </c>
+      <c r="B20">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2000</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2001</v>
+      </c>
+      <c r="B22">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2002</v>
+      </c>
+      <c r="B23">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2003</v>
+      </c>
+      <c r="B24">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2004</v>
+      </c>
+      <c r="B25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2005</v>
+      </c>
+      <c r="B26">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2006</v>
+      </c>
+      <c r="B27">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2007</v>
+      </c>
+      <c r="B28">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2008</v>
+      </c>
+      <c r="B29">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2009</v>
+      </c>
+      <c r="B30">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2010</v>
+      </c>
+      <c r="B31">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2011</v>
+      </c>
+      <c r="B32">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2012</v>
+      </c>
+      <c r="B33">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2013</v>
+      </c>
+      <c r="B34">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2014</v>
+      </c>
+      <c r="B35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2015</v>
+      </c>
+      <c r="B36">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2016</v>
+      </c>
+      <c r="B37">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A2:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>311</v>
+      </c>
+      <c r="D17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A2:B94"/>
+  <dimension ref="A2:B108"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="K3:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7494,12 +8423,12 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
+      <c r="A35" s="28" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -7507,210 +8436,199 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>9</v>
+      <c r="A37" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>82</v>
+      <c r="A38" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>25</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
+      <c r="A41" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>12</v>
+      <c r="A44" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="28" t="s">
-        <v>272</v>
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="32" t="s">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>306</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>298</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
+      <c r="A62" s="28" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>89</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>116</v>
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
+      <c r="A66" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -7718,165 +8636,255 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>238</v>
-      </c>
-      <c r="B70" t="s">
-        <v>239</v>
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>7</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>28</v>
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>259</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>248</v>
-      </c>
-      <c r="B78" t="s">
-        <v>257</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>246</v>
-      </c>
-      <c r="B79" t="s">
-        <v>256</v>
+      <c r="A79" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>250</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>50</v>
+      <c r="A83" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>253</v>
-      </c>
-      <c r="B84" t="s">
-        <v>254</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="28" t="s">
-        <v>262</v>
+      <c r="A86" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>245</v>
       </c>
       <c r="B87" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" t="s">
-        <v>50</v>
+      <c r="A90" t="s">
+        <v>247</v>
+      </c>
+      <c r="B90" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>279</v>
-      </c>
-      <c r="B92" t="s">
-        <v>290</v>
+      <c r="A92" s="28" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>280</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>279</v>
+      </c>
+      <c r="B102" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>280</v>
+      </c>
+      <c r="B103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>282</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B104" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>298</v>
+      </c>
+      <c r="B108" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
